--- a/biology/Médecine/Centre_de_recherche_pharmaceutique_de_Luozi/Centre_de_recherche_pharmaceutique_de_Luozi.xlsx
+++ b/biology/Médecine/Centre_de_recherche_pharmaceutique_de_Luozi/Centre_de_recherche_pharmaceutique_de_Luozi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le Centre de recherche pharmaceutique de Luozi (CRPL) est une institution privée de recherche médicale située à Luozi dans la République démocratique du Congo, et un des principaux organismes de recherche du pays[1].
-Il fut fondé en 1980 par le docteur Étienne Flaubert Batangu Mpesa[2], qui en fut président du conseil d’administration jusqu'à son décès en 2021[3].
-Depuis 1987, le centre a notamment mené des expérimentations systématiques pour trouver des soins contre le paludisme[4],[5].
-Un de ses objectifs est la remise en valeur de la pharmacopée traditionnelle africaine. Ainsi, un des premiers travaux du centre a été la confirmation de l'efficacité d’un vermifuge tiré d’une plante appelée kizu, en Manianga et d’un anti-diarrhéique à base de plantes[6].
-Il produit notamment[7]:
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le Centre de recherche pharmaceutique de Luozi (CRPL) est une institution privée de recherche médicale située à Luozi dans la République démocratique du Congo, et un des principaux organismes de recherche du pays.
+Il fut fondé en 1980 par le docteur Étienne Flaubert Batangu Mpesa, qui en fut président du conseil d’administration jusqu'à son décès en 2021.
+Depuis 1987, le centre a notamment mené des expérimentations systématiques pour trouver des soins contre le paludisme,.
+Un de ses objectifs est la remise en valeur de la pharmacopée traditionnelle africaine. Ainsi, un des premiers travaux du centre a été la confirmation de l'efficacité d’un vermifuge tiré d’une plante appelée kizu, en Manianga et d’un anti-diarrhéique à base de plantes.
+Il produit notamment:
 Manadiar, lancé sur le marché en 1981, antidiarrhéen à base de plantes naturelles.
 Manalaria, créé en 1984, anti-paludéen naturel bien toléré notamment par les femmes enceintes.
-Manacovid, utilisé en RDC pour le traitement de certains symptômes du Covid-19[8].</t>
+Manacovid, utilisé en RDC pour le traitement de certains symptômes du Covid-19.</t>
         </is>
       </c>
     </row>
